--- a/week-2/StringsActivities/ApplicantInfo.xlsx
+++ b/week-2/StringsActivities/ApplicantInfo.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Batches\230206-UiPath-BNYM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C1746E-BC3A-4E79-99AD-9995AD80193C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="23260" windowHeight="13180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -120,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -435,18 +429,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -562,8 +556,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{BB143C2F-FA04-4934-A00F-C4738FA8A78B}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{C515F73A-9902-4784-B501-452489525A69}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -571,6 +565,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010029651A743809674EA380985F8EF857EB" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3a9634b484a8fb32dc6909a8699afd82">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8281136c-3236-4060-8248-b02a7f3e9f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb502cd37ece96e68cda9ac896eab4a3" ns2:_="">
     <xsd:import namespace="8281136c-3236-4060-8248-b02a7f3e9f10"/>
@@ -702,19 +705,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08881C51-C8EA-4232-90FB-18F2EB429C8D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A399F8E-2F26-4A9B-ADFC-CDECAF81AB28}"/>
-</file>
-
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08881C51-C8EA-4232-90FB-18F2EB429C8D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A399F8E-2F26-4A9B-ADFC-CDECAF81AB28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8281136c-3236-4060-8248-b02a7f3e9f10"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/week-2/StringsActivities/ApplicantInfo.xlsx
+++ b/week-2/StringsActivities/ApplicantInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="23260" windowHeight="13180"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>First Name</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>688-09-1346</t>
+  </si>
+  <si>
+    <t>VALID</t>
+  </si>
+  <si>
+    <t>INVALID</t>
   </si>
 </sst>
 </file>
@@ -429,7 +435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -439,17 +445,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -488,6 +492,9 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -505,6 +512,9 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -522,6 +532,9 @@
       <c r="E4" t="s">
         <v>20</v>
       </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -539,6 +552,9 @@
       <c r="E5" t="s">
         <v>24</v>
       </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -552,6 +568,12 @@
       </c>
       <c r="D6" t="s">
         <v>29</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -565,15 +587,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010029651A743809674EA380985F8EF857EB" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3a9634b484a8fb32dc6909a8699afd82">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8281136c-3236-4060-8248-b02a7f3e9f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb502cd37ece96e68cda9ac896eab4a3" ns2:_="">
     <xsd:import namespace="8281136c-3236-4060-8248-b02a7f3e9f10"/>
@@ -705,15 +718,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08881C51-C8EA-4232-90FB-18F2EB429C8D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A399F8E-2F26-4A9B-ADFC-CDECAF81AB28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -729,4 +743,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08881C51-C8EA-4232-90FB-18F2EB429C8D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>